--- a/Documentation/Sprint Backlogs.xlsx
+++ b/Documentation/Sprint Backlogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Functional Requirement</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>2 days</t>
+  </si>
+  <si>
+    <t>Add uniform formatting to documents</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,18 +141,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -478,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F10"/>
+  <dimension ref="C4:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +602,20 @@
       </c>
       <c r="F10" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Sprint Backlogs.xlsx
+++ b/Documentation/Sprint Backlogs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morgan\Documents\Aberystwyth University\Year 5\repo\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D41D737-5FE2-4F32-B54F-2BF47928B97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12435" windowHeight="8775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Functional Requirement</t>
   </si>
@@ -76,13 +82,73 @@
   </si>
   <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <t>Sprint 2 - 29/10/2019</t>
+  </si>
+  <si>
+    <t>Write Solr Technical Report</t>
+  </si>
+  <si>
+    <t>Write Test Plan</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Relative Importance</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Architectual Design</t>
+  </si>
+  <si>
+    <t>Morgan &amp; Dominic</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>Complete Project Plan</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not done at all</t>
+  </si>
+  <si>
+    <t>Some progress made</t>
+  </si>
+  <si>
+    <t>Mostly Complete</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>2 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +172,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,23 +268,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="6"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Input" xfId="6" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -198,7 +340,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -206,6 +348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -254,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +432,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +484,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,9 +689,11 @@
     <col min="4" max="4" width="52.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -520,7 +701,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="3:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -533,94 +714,238 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="3:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -628,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -640,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
